--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Меню</t>
   </si>
@@ -123,21 +123,6 @@
   </si>
   <si>
     <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-  <si>
-    <t>Удалить меню</t>
-  </si>
-  <si>
-    <t>Удалить подменю</t>
-  </si>
-  <si>
-    <t>menu_id</t>
-  </si>
-  <si>
-    <t>submenu_id</t>
-  </si>
-  <si>
-    <t>dish_id</t>
   </si>
 </sst>
 </file>
@@ -256,7 +241,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -337,6 +322,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -632,7 +625,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.574285714285713" defaultRowHeight="15" customHeight="1"/>
@@ -932,42 +925,24 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="23"/>
